--- a/xlsx/金融_intext.xlsx
+++ b/xlsx/金融_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>金融</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E9%87%91</t>
   </si>
   <si>
-    <t>資金</t>
+    <t>资金</t>
   </si>
   <si>
     <t>政策_政策_管理_金融</t>
@@ -41,25 +41,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E5%88%B8</t>
   </si>
   <si>
-    <t>證券</t>
+    <t>证券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>保險</t>
+    <t>保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>金融服務</t>
+    <t>金融服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%AD%B8</t>
   </si>
   <si>
-    <t>金融學</t>
+    <t>金融学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9E%8D%E8%B3%87</t>
   </si>
   <si>
-    <t>融資</t>
+    <t>融资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88%E5%B8%AB</t>
   </si>
   <si>
-    <t>會計師</t>
+    <t>会计师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%81%E5%88%B8%E7%BB%8F%E7%BA%AA%E4%BA%BA</t>
@@ -113,21 +113,15 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>醫師</t>
+    <t>医师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>銀行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%AD%A6</t>
   </si>
   <si>
-    <t>金融学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E</t>
   </si>
   <si>
@@ -143,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>服務</t>
+    <t>服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%87%91%E8%9E%8D</t>
@@ -155,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%A8%85%E5%80%89%E5%BA%AB</t>
   </si>
   <si>
-    <t>保稅倉庫</t>
+    <t>保税仓库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%8B%E9%87%91%E8%9E%8D</t>
@@ -173,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1008,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1040,10 +1034,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -1098,10 +1092,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
@@ -1127,10 +1121,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1156,10 +1150,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1185,10 +1179,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1214,10 +1208,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1243,10 +1237,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1272,10 +1266,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1301,10 +1295,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1330,10 +1324,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
